--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\Converter-excel-to-pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F59975-172B-430C-BB83-B4B5C4CE3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD286DD-9160-4598-A1FD-3C2A59B9B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>English</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>CATS</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -195,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -207,7 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1974,10 +1986,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>78764</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4491</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2008,7 +2020,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4333875" cy="4269764"/>
+          <a:ext cx="3635197" cy="3664324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2029,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99653</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2068,8 +2080,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4852147" y="1"/>
-          <a:ext cx="6387353" cy="4290652"/>
+          <a:off x="4235823" y="0"/>
+          <a:ext cx="5454959" cy="3664324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2382,7 @@
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -2406,8 +2418,11 @@
       <c r="F2" s="5">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -2427,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2487,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2535,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7A3AB0-F785-4BE6-B9F0-0F5FE95DCE6F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2562,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2565,7 +2580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2584,8 +2599,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2605,7 +2623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2655,7 +2673,7 @@
   <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2683,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -2674,7 +2692,9 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2685,14 +2705,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BFB22A-58ED-4178-BE6F-BE59B6C67D60}">
-  <dimension ref="A1"/>
+  <dimension ref="G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
